--- a/bbb_16/jlcpcb/assembly/BOM_BBB_16v2_SMD_PCB.xlsx
+++ b/bbb_16/jlcpcb/assembly/BOM_BBB_16v2_SMD_PCB.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Documents/GitHub/Pixel-Controllers/bbb_16/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavindouglass/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2A2737D-62B9-B849-B635-7014F7830960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C86CA053-5BDF-CB4B-A324-95C0AE30E049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="11980" yWindow="5900" windowWidth="27640" windowHeight="16940"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM_BBB_16v2_SMD_PCB" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM_BBB 16v2 SMD PCB_2023-03-04" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Supplier Part</t>
   </si>
   <si>
+    <t>LCSC</t>
+  </si>
+  <si>
     <t>4.7K</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>0603WAF4701T5E</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
     <t>C23162</t>
   </si>
   <si>
@@ -131,18 +131,6 @@
   </si>
   <si>
     <t>C434420</t>
-  </si>
-  <si>
-    <t>SZYY0603R</t>
-  </si>
-  <si>
-    <t>LED3</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD</t>
-  </si>
-  <si>
-    <t>C434419</t>
   </si>
   <si>
     <t>BZT52C10_C173431</t>
@@ -1070,11 +1058,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1101,22 +1098,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
@@ -1130,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -1139,7 +1136,7 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -1153,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1162,7 +1159,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -1176,7 +1173,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1185,7 +1182,7 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -1199,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1208,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -1231,7 +1228,7 @@
         <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -1254,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -1274,33 +1271,33 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1314,16 +1311,16 @@
         <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
@@ -1337,111 +1334,88 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>61</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>33</v>
+      <c r="A15" t="s">
+        <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
